--- a/Отчёт/EachGraphComparison.xlsx
+++ b/Отчёт/EachGraphComparison.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Construction and analysis of algorithms\SortAlgorithms\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{48CC160F-5BC8-4241-94E3-A371C50B16DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46958DA-EBA5-4243-81F3-3D070FCC6340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="First" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="18">
   <si>
     <t>Mode</t>
   </si>
@@ -75,86 +75,11 @@
   <si>
     <t>From 0 to 4000</t>
   </si>
-  <si>
-    <t>From 0 to 4001</t>
-  </si>
-  <si>
-    <t>From 0 to 4002</t>
-  </si>
-  <si>
-    <t>From 0 to 4003</t>
-  </si>
-  <si>
-    <t>From 0 to 4004</t>
-  </si>
-  <si>
-    <t>From 0 to 4005</t>
-  </si>
-  <si>
-    <t>From 0 to 4006</t>
-  </si>
-  <si>
-    <t>From 0 to 4007</t>
-  </si>
-  <si>
-    <t>From 0 to 4008</t>
-  </si>
-  <si>
-    <t>From 0 to 4009</t>
-  </si>
-  <si>
-    <t>From 0 to 4010</t>
-  </si>
-  <si>
-    <t>From 0 to 4011</t>
-  </si>
-  <si>
-    <t>From 0 to 4012</t>
-  </si>
-  <si>
-    <t>From 0 to 4013</t>
-  </si>
-  <si>
-    <t>From 0 to 4014</t>
-  </si>
-  <si>
-    <t>From 0 to 4015</t>
-  </si>
-  <si>
-    <t>From 0 to 4016</t>
-  </si>
-  <si>
-    <t>From 0 to 4017</t>
-  </si>
-  <si>
-    <t>From 0 to 4018</t>
-  </si>
-  <si>
-    <t>From 0 to 4019</t>
-  </si>
-  <si>
-    <t>From 0 to 4020</t>
-  </si>
-  <si>
-    <t>From 0 to 4021</t>
-  </si>
-  <si>
-    <t>From 0 to 4022</t>
-  </si>
-  <si>
-    <t>From 0 to 4023</t>
-  </si>
-  <si>
-    <t>From 0 to 4024</t>
-  </si>
-  <si>
-    <t>From 0 to 4025</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1626,7 +1551,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -23000,11 +22924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U28" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AX81" sqref="AX81"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24243,7 +24167,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29">
         <v>60</v>
@@ -24287,7 +24211,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>70</v>
@@ -24331,7 +24255,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>80</v>
@@ -24375,7 +24299,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>90</v>
@@ -24419,7 +24343,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>100</v>
@@ -24463,7 +24387,7 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>110</v>
@@ -24507,7 +24431,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B35">
         <v>120</v>
@@ -24551,7 +24475,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>130</v>
@@ -24595,7 +24519,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>140</v>
@@ -24639,7 +24563,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>150</v>
@@ -24683,7 +24607,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>160</v>
@@ -24727,7 +24651,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B40">
         <v>170</v>
@@ -24771,7 +24695,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B41">
         <v>180</v>
@@ -24815,7 +24739,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>190</v>
@@ -24859,7 +24783,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>200</v>
@@ -24903,7 +24827,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B44">
         <v>210</v>
@@ -24947,7 +24871,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B45">
         <v>220</v>
@@ -24991,7 +24915,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B46">
         <v>230</v>
@@ -25035,7 +24959,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B47">
         <v>240</v>
@@ -25079,7 +25003,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B48">
         <v>250</v>
@@ -25123,7 +25047,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B49">
         <v>260</v>
@@ -25167,7 +25091,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B50">
         <v>270</v>
@@ -25211,7 +25135,7 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B51">
         <v>280</v>
@@ -25255,7 +25179,7 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <v>290</v>
@@ -25299,7 +25223,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B53">
         <v>300</v>
